--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H465"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1093,11 @@
           <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>42.7</t>
@@ -1125,7 +1129,11 @@
           <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>43.7</t>
@@ -1157,7 +1165,11 @@
           <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>38</t>
@@ -1189,7 +1201,11 @@
           <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>48.5</t>
@@ -1221,7 +1237,11 @@
           <t>Unemployment RateNOV</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>5.8%</t>
@@ -1257,7 +1277,11 @@
           <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>S$505.7B</t>
@@ -2441,18 +2465,18 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMDEC</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2465,22 +2489,26 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYDEC</t>
+          <t>Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-4.6</t>
+        </is>
+      </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
@@ -2489,22 +2517,30 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
@@ -2513,18 +2549,18 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYDEC</t>
+          <t>Global Supply Chain Pressure IndexDEC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2534,83 +2570,73 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexDEC</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Business ConfidenceDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-1.442M</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>-4.6</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
+          <t>$9.78B</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16.3M</t>
+          <t>$4.5B</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2618,97 +2644,135 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Global Supply Chain Pressure IndexDEC</t>
+          <t>Monthly CPI IndicatorNOV</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesDEC</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>$150.2B</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>$ 152.0B</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-1.442M</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>36.4</t>
+        </is>
+      </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>$9.78B</t>
+          <t>$65.86B</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>$4.5B</t>
+          <t>$ 64.0B</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2718,33 +2782,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorNOV</t>
+          <t>Factory Orders MoMNOV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2754,133 +2818,141 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>$150.2B</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>$ 152.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>$65.86B</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>€-7.7B</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>€-7B</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>$ 64.0B</t>
+          <t>€-6.5B</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Factory Orders MoMNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2890,73 +2962,61 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>€-2.6B</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>€-2.0B</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+          <t>€48.7B</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2972,59 +3032,51 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>€-7.7B</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>€-7B</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>€-6.5B</t>
-        </is>
-      </c>
+          <t>€56.4B</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Consumer Confidence FinalDEC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>-13.7</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3034,59 +3086,67 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Economic SentimentDEC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>€-2.6B</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+          <t>95.8</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>95.6</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>€-2.0B</t>
+          <t>95.5</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>€48.7B</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
       <c r="H82" t="n">
         <v>3</v>
       </c>
@@ -3094,27 +3154,35 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Industrial SentimentDEC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>€56.4B</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+          <t>-11.1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-11.7</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-11.3</t>
+        </is>
+      </c>
       <c r="H83" t="n">
         <v>3</v>
       </c>
@@ -3132,27 +3200,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Consumer Confidence FinalDEC</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-13.7</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3168,27 +3236,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Economic SentimentDEC</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>95.8</t>
+          <t>-3.2%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>95.6</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>95.5</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -3204,19 +3272,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Selling Price ExpectationsDEC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3236,23 +3304,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Industrial SentimentDEC</t>
+          <t>Services SentimentDEC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-11.7</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3267,30 +3335,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>4.348%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>3</v>
       </c>
@@ -3303,28 +3363,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>BBA Mortgage RateDEC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3334,31 +3390,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Selling Price ExpectationsDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>3</v>
       </c>
@@ -3366,35 +3418,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Services SentimentDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>2.798%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>3</v>
       </c>
@@ -3402,23 +3446,23 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4.348%</t>
+          <t>2.632%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -3430,31 +3474,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateDEC</t>
+          <t>M3 Money Supply YoYDEC/27</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>10.7%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>3</v>
       </c>
@@ -3462,55 +3502,71 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.798%</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H95" t="n">
         <v>3</v>
       </c>
@@ -3518,51 +3574,51 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2.632%</t>
+          <t>6.97%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC/27</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10.7%</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -3579,32 +3635,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>174.9</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -3615,30 +3663,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>395.1</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
         <v>3</v>
       </c>
@@ -3656,25 +3696,25 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3684,25 +3724,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-12.6%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3712,25 +3760,21 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>174.9</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3740,25 +3784,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>395.1</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3768,17 +3820,21 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>136.7</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="H104" t="n">
         <v>3</v>
       </c>
@@ -3786,7 +3842,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3796,57 +3852,57 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>139K</t>
-        </is>
-      </c>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>140K</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Treasury Cash BalanceDEC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>TRY-62.220B</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3856,25 +3912,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>2</v>
       </c>
@@ -3882,7 +3930,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3892,29 +3940,25 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1844K</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>1848K</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3924,21 +3968,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
         <v>3</v>
       </c>
@@ -3946,23 +3986,23 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRY-62.220B</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -3984,19 +4024,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -4012,19 +4052,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -4040,13 +4080,13 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4068,13 +4108,13 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -4096,13 +4136,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -4114,7 +4154,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4124,13 +4164,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -4142,23 +4182,23 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>3.029%</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -4170,7 +4210,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4180,13 +4220,13 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -4198,7 +4238,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4208,13 +4248,13 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4224,25 +4264,21 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Motorbike Sales YoYDEC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-10.3%</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -4252,25 +4288,21 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Bavaria CPI MoMDEC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3.029%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -4280,25 +4312,21 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>Bavaria CPI YoYDEC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -4308,29 +4336,29 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>ABSA Manufacturing PMIDEC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
       <c r="H123" t="n">
         <v>3</v>
       </c>
@@ -4339,18 +4367,18 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYDEC</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>-10.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -4363,74 +4391,68 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIDEC</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMDEC</t>
-        </is>
-      </c>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="n">
-        <v>3</v>
-      </c>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
         <v>3</v>
       </c>
@@ -4438,43 +4460,57 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$14.0B</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4484,57 +4520,65 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Average Cash Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>Overtime Pay YoYNOV</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>$14.0B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4544,7 +4588,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4554,25 +4598,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYNOV</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
         <v>3</v>
       </c>
@@ -4580,7 +4616,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4590,21 +4626,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
         <v>3</v>
       </c>
@@ -4622,15 +4650,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
@@ -4650,11 +4674,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
@@ -4664,53 +4692,73 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+          <t>A$5.953B</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>A$5.900B</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>A$6B</t>
+        </is>
+      </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4726,27 +4774,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A$5.953B</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>A$5.900B</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>A$6B</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -4762,53 +4802,49 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>125.9</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="H140" t="n">
         <v>3</v>
       </c>
@@ -4816,23 +4852,23 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.287%</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -4844,31 +4880,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>125.9</t>
+          <t>0.2952%</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
         <v>3</v>
       </c>
@@ -4876,57 +4908,69 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2.287%</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+          <t>€13.4B</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>€14.8B</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>€15.0B</t>
+        </is>
+      </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0.2952%</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -4942,27 +4986,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>€13.4B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>€14.8B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>€15.0B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -4978,88 +5022,76 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>15-Year Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>1.297%</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>20-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+          <t>3.527%</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
         <v>3</v>
@@ -5078,13 +5110,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked Obligacion Auction</t>
+          <t>3-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1.297%</t>
+          <t>2.277%</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -5106,13 +5138,13 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>20-Year Obligacion Auction</t>
+          <t>7-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>3.527%</t>
+          <t>2.692%</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -5124,57 +5156,69 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3-Year Bonos Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2.277%</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>7-Year Obligacion Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2.692%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -5185,32 +5229,24 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>10-Year OAT Auction</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -5221,28 +5257,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>12-Year OAT Auction</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -5258,13 +5290,13 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10-Year OAT Auction</t>
+          <t>20-Year OAT Auction</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -5286,13 +5318,13 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>12-Year OAT Auction</t>
+          <t>30-Year OAT Auction</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -5304,23 +5336,23 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>20-Year OAT Auction</t>
+          <t>12-Month BOT Auction</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>2.411%</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -5332,27 +5364,31 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>30-Year OAT Auction</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H158" t="n">
         <v>3</v>
       </c>
@@ -5360,27 +5396,31 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12-Month BOT Auction</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2.411%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
       <c r="H159" t="n">
         <v>3</v>
       </c>
@@ -5388,31 +5428,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/03</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$90.74B</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
         <v>3</v>
       </c>
@@ -5420,59 +5456,71 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>$90.74B</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H162" t="n">
         <v>3</v>
       </c>
@@ -5485,28 +5533,28 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5521,32 +5569,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>4.35%</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -5562,27 +5610,27 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -5598,59 +5646,55 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>3.58%</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>3.56%</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>3.54%</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0.05%</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
+          <t>57.727K</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>65K</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5660,65 +5704,53 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>3.58%</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>3.56%</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>3.54%</t>
-        </is>
-      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Auto Exports YoYDEC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>57.727K</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>65K</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5728,31 +5760,39 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5762,51 +5802,47 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Auto Exports YoYDEC</t>
+          <t>Monetary Policy Meeting Minutes</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Wholesale Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -5816,31 +5852,35 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Monetary Policy Meeting Minutes</t>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5850,25 +5890,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMNOV</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+          <t>4.265%</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
         <v>3</v>
       </c>
@@ -5876,7 +5908,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5886,16 +5918,16 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>$25 million</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
         <v>3</v>
@@ -5904,23 +5936,23 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4.265%</t>
+          <t>3.142%</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -5932,7 +5964,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5942,13 +5974,13 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -5965,18 +5997,18 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>10-Year Bond Auction</t>
+          <t>30-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>3.142%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -5988,7 +6020,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:10 PM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5998,67 +6030,59 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/09</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>6.13%</t>
-        </is>
-      </c>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/09</t>
+          <t>Baden Wuerttemberg CPI MoMDEC</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>11:10 PM</t>
-        </is>
-      </c>
+      <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Baden Wuerttemberg CPI YoYDEC</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
@@ -14802,21 +14826,25 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
@@ -14824,6 +14852,92 @@
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -1837,7 +1837,11 @@
           <t>2-Year Schatz Auction</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>1.94%</t>
@@ -1852,31 +1856,31 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>3</v>
       </c>
@@ -1894,19 +1898,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1921,50 +1925,58 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
@@ -1972,37 +1984,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>C$-0.9B</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>C$-1.5B</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2018,23 +2018,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>C$-0.9B</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>C$-1.5B</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2050,19 +2054,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
+          <t>C$64.22B</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>C$65.5B</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2077,32 +2081,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>C$65.14B</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2118,19 +2118,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2150,19 +2154,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$265.7B</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2172,7 +2176,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2182,55 +2186,51 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2241,23 +2241,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.70M</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2318,23 +2318,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2350,19 +2354,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2382,19 +2386,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2414,19 +2418,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2446,19 +2450,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2468,7 +2472,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2478,17 +2482,21 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
       <c r="H59" t="n">
         <v>3</v>
       </c>
@@ -2496,7 +2504,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2506,13 +2514,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2522,7 +2530,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>US</t>
@@ -2530,13 +2542,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3311,7 +3323,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3379,7 +3391,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3587,7 +3599,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3799,7 +3811,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>139K</t>
+          <t>140K</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3859,7 +3871,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>218K</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3893,7 +3905,11 @@
           <t>1844K</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>1848K</t>
@@ -4686,15 +4702,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
@@ -4714,11 +4726,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
@@ -13037,10 +13053,14 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F403" t="inlineStr"/>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -13109,8 +13129,16 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="F405" t="inlineStr"/>
-      <c r="G405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H405" t="inlineStr">
         <is>
           <t>3</t>
@@ -13134,11 +13162,19 @@
         </is>
       </c>
       <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -2052,7 +2052,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>00:41</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2439,7 +2439,11 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>52</t>
@@ -2471,7 +2475,11 @@
           <t>53.7</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>54.1</t>
@@ -2503,7 +2511,11 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>57.5</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -4017,7 +4029,11 @@
           <t>-1.178M</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>2</v>
@@ -4045,7 +4061,11 @@
           <t>7.717M</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>2</v>
@@ -4157,7 +4177,11 @@
           <t>6.406M</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
         <v>3</v>
@@ -4577,7 +4601,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>$12B</t>
+          <t>$10.5B</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4670,11 +4694,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
@@ -4694,15 +4722,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
@@ -4722,15 +4746,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
@@ -4750,11 +4770,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -2652,23 +2652,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Global Supply Chain Pressure IndexDEC</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2680,7 +2684,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2690,13 +2694,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>42-Day Bill Auction</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2706,7 +2714,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>US</t>
@@ -2714,265 +2726,269 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesDEC</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
+          <t>4.235%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Global Supply Chain Pressure IndexDEC</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-1.442M</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-0.25M</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>$9.78B</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>$4.5B</t>
+        </is>
+      </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Monthly CPI IndicatorNOV</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>$9.78B</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>$4.5B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+          <t>$150.2B</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>$ 152.0B</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>$150.2B</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>$ 152.0B</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>36.4</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>36.6</t>
-        </is>
-      </c>
+          <t>$65.86B</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>$ 64.0B</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Factory Orders MoMNOV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>$65.86B</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>$ 64.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2988,7 +3004,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Factory Orders MoMNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2999,12 +3015,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3024,23 +3040,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3050,33 +3066,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>€-7.7B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>€-7B</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>€-6.5B</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3096,23 +3112,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>€-7.7B</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>€-7B</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>€-6.5B</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3132,27 +3148,23 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+          <t>€-2.6B</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>€-2.0B</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3168,21 +3180,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>€-2.6B</t>
+          <t>€48.7B</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>€-2.0B</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>3</v>
       </c>
@@ -3200,13 +3208,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>€48.7B</t>
+          <t>€56.4B</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3218,29 +3226,37 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Consumer Confidence FinalDEC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>€56.4B</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+          <t>-13.7</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3256,23 +3272,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Consumer Confidence FinalDEC</t>
+          <t>Economic SentimentDEC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-13.7</t>
+          <t>95.8</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>95.6</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>95.5</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3292,27 +3308,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Economic SentimentDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>95.6</t>
-        </is>
-      </c>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>95.5</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -3328,19 +3340,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Industrial SentimentDEC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>17.7</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>-11.1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-11.7</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>-11.3</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3360,23 +3376,23 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Industrial SentimentDEC</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-11.7</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3396,23 +3412,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-3.2%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3432,23 +3448,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>Selling Price ExpectationsDEC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3468,19 +3480,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Selling Price ExpectationsDEC</t>
+          <t>Services SentimentDEC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3495,30 +3511,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Services SentimentDEC</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>4.348%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>3</v>
       </c>
@@ -3536,17 +3544,21 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>BBA Mortgage RateDEC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4.348%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
@@ -3554,31 +3566,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>3</v>
       </c>
@@ -3586,23 +3594,23 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>2.798%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3624,13 +3632,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.798%</t>
+          <t>2.632%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -3642,23 +3650,23 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>M3 Money Supply YoYDEC/27</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2.632%</t>
+          <t>10.7%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -3670,29 +3678,37 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC/27</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10.7%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -3708,27 +3724,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -3739,32 +3755,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3780,19 +3788,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -3808,13 +3816,13 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -3836,13 +3844,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -3864,13 +3872,13 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3882,7 +3890,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3892,25 +3900,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>136.7</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3920,25 +3936,13 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>2</v>
       </c>
@@ -3956,13 +3960,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>218K</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
@@ -3980,27 +3996,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>211K</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>218K</t>
+          <t>1870K</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -4016,23 +4032,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4042,31 +4054,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Treasury Cash BalanceDEC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>TRY-62.220B</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>3</v>
       </c>
@@ -4074,29 +4082,33 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceDEC</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRY-62.220B</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -4112,18 +4124,18 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>-0.25M</t>
+          <t>0.5M</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -4144,23 +4156,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>7.717M</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -4176,13 +4184,13 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4204,13 +4212,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4232,16 +4240,20 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.099M</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
         <v>3</v>
@@ -4260,20 +4272,16 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6.406M</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
         <v>3</v>
@@ -4292,13 +4300,13 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -4320,13 +4328,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -4338,7 +4346,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4348,13 +4356,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -4366,23 +4374,23 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>3.029%</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -4399,18 +4407,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3.029%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -4422,7 +4430,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4432,13 +4440,13 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -4448,25 +4456,21 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Motorbike Sales YoYDEC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>-10.3%</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -4479,18 +4483,18 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Motorbike Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-10.3%</t>
+          <t>€275.572B</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -4503,22 +4507,26 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>ABSA Manufacturing PMIDEC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>€275.572B</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
       <c r="H122" t="n">
         <v>3</v>
       </c>
@@ -4527,26 +4535,22 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIDEC</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
         <v>3</v>
       </c>
@@ -4560,13 +4564,13 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -4584,17 +4588,25 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="H125" t="n">
         <v>3</v>
       </c>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -4798,11 +4798,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
@@ -4822,15 +4826,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
@@ -4850,15 +4850,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
@@ -4878,11 +4874,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H487"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,7 +2729,11 @@
           <t>10-Year Note Auction</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>4.235%</t>
@@ -15764,26 +15768,78 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr"/>
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -4802,15 +4802,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
@@ -4830,11 +4826,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
@@ -4854,11 +4854,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
@@ -4878,15 +4882,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -4802,11 +4802,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
@@ -4826,15 +4830,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
@@ -4854,15 +4854,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
@@ -4882,11 +4878,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
